--- a/Test Cases/Iteration 6/Iteration 6 Test Cases v2 Result.xlsx
+++ b/Test Cases/Iteration 6/Iteration 6 Test Cases v2 Result.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="153">
   <si>
     <t>No</t>
   </si>
@@ -337,9 +337,6 @@
   <si>
     <t>Verify that screenings created in test cases 1 - 4 were shown 
 Hand Foot Mouth Disease, Cancers, Cancer, Chicken Pox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the 'Add Screenings' from the Screenings drop down list on the header  </t>
   </si>
   <si>
     <t xml:space="preserve">Edit Screening (Type: All) </t>
@@ -440,9 +437,6 @@
     <t xml:space="preserve">Error Message Shown (Infant cannot be above 1 years old) </t>
   </si>
   <si>
-    <t xml:space="preserve">Ensure that Test Case 10 is not added in to the screenings table </t>
-  </si>
-  <si>
     <t>View Screenings with Filter</t>
   </si>
   <si>
@@ -486,40 +480,7 @@
     <t>Page should direct to user home page</t>
   </si>
   <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 0 - 10 in drop down list  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">59 Names should shown. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-Illness: Cancers, Click 'View Client List' 
 </t>
   </si>
   <si>
@@ -678,6 +639,83 @@
       </rPr>
       <t>DB not updated</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/viewScreenings.html
+</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>UI / Codes</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Not shown</t>
+  </si>
+  <si>
+    <t>unable to edit</t>
+  </si>
+  <si>
+    <t>ecf</t>
+  </si>
+  <si>
+    <t>Unable to verify</t>
+  </si>
+  <si>
+    <t>Unable to delete</t>
+  </si>
+  <si>
+    <t>No error message shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Unable to test this</t>
+  </si>
+  <si>
+    <t>Display unrelated results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/viewScreenings.html
+Demographic: Infant 
+Age Group: 0 - 10 in drop down list  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/viewScreenings.html
+Demographic: Infant 
+Age Group: 21 - 30 in drop down list  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/viewScreenings.html
+Demographic: Male
+Age Group: 21 - 30 in drop down list  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/viewScreenings.htmlDemographic: Male
+Age Group: 20 - 30 in drop down list  
+Illness: Cancers, Click 'View Client List' 
+</t>
+  </si>
+  <si>
+    <t>Page did not redirect to view client page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure that Test Case 9 is not added in to the screenings table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown 
+note: can only test after bootstrap the data files </t>
   </si>
 </sst>
 </file>
@@ -804,13 +842,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>3715307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -848,13 +886,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>223370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>2300541</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1473,7 +1511,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -1491,7 +1529,7 @@
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1507,10 +1545,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1529,10 +1567,10 @@
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1595,7 +1633,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1617,7 +1655,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -1639,7 +1677,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -1661,7 +1699,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -1683,7 +1721,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -1705,7 +1743,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -1727,7 +1765,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -1749,7 +1787,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
@@ -1771,7 +1809,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
@@ -1793,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>25</v>
@@ -1815,7 +1853,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
@@ -1831,13 +1869,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>33</v>
@@ -1853,13 +1891,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>34</v>
@@ -1881,7 +1919,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>38</v>
@@ -1903,7 +1941,7 @@
         <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>38</v>
@@ -1941,16 +1979,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1963,16 +2001,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1985,16 +2023,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2007,16 +2045,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2029,16 +2067,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3438,10 +3476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3472,7 +3510,9 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="G1" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
@@ -3490,12 +3530,14 @@
         <v>74</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="12"/>
+        <v>130</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
@@ -3513,12 +3555,14 @@
         <v>74</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="12"/>
+        <v>130</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
@@ -3530,22 +3574,24 @@
         <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="12"/>
+        <v>130</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3558,13 +3604,19 @@
       <c r="D5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="62" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3572,220 +3624,271 @@
         <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="62" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="12"/>
+      <c r="E8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="12"/>
+        <v>88</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="62" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+        <v>151</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="93" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="E12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="93" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="E13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="93" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="E14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="300" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="300" customHeight="1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
